--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3952109.680925367</v>
+        <v>3947804.557928299</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>145.198658204325</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>145.198658204325</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.4949840230014</v>
+        <v>10.1270721986403</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>197.7420922255873</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>179.9843772036824</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425929</v>
+        <v>23.94240680425889</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>21.53599557537414</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074806</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>171.3247948433144</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.05337266685307</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2859115061295</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>127.7512646763106</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>33.37380165567942</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>37.34513486298226</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.3158559130459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>125.0721477169158</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143227</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>15.09910835322229</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>54.84205284513764</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>50.49265242092939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.66650366117342</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>16.92025364381838</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>16.09765778288736</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.38407275859089</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>91.32784210538765</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,13 +3319,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.83025205764069</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.1669704749667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.96386702300485</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>18.52833786981382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="C2" t="n">
+        <v>414.0172523312947</v>
+      </c>
+      <c r="D2" t="n">
         <v>224.59746731481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
         <v>35.17768229832527</v>
@@ -4330,19 +4330,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
@@ -4363,19 +4363,19 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>414.0172523312947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>326.0055813073268</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>326.0055813073268</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
@@ -4418,13 +4418,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4439,7 +4439,7 @@
         <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>336.2349471645392</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
         <v>336.2349471645392</v>
@@ -4448,13 +4448,13 @@
         <v>336.2349471645392</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8151621480545</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="X3" t="n">
-        <v>146.8151621480545</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.8151621480545</v>
+        <v>336.2349471645392</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
         <v>15.00204697330559</v>
@@ -4509,31 +4509,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>926.979394500715</v>
+        <v>604.6441163677182</v>
       </c>
       <c r="C5" t="n">
-        <v>558.0168775603033</v>
+        <v>235.6815994273065</v>
       </c>
       <c r="D5" t="n">
-        <v>558.0168775603033</v>
+        <v>235.6815994273065</v>
       </c>
       <c r="E5" t="n">
-        <v>558.0168775603033</v>
+        <v>235.6815994273065</v>
       </c>
       <c r="F5" t="n">
-        <v>358.2773904637505</v>
+        <v>228.736098678103</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182461</v>
+        <v>216.3604575325986</v>
       </c>
       <c r="H5" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017215</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.980716674697</v>
+        <v>277.9807166746983</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030745</v>
+        <v>521.2049416030774</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709159</v>
+        <v>823.5081935709197</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332754</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583788</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540648</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540648</v>
+        <v>1562.810726301005</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540648</v>
+        <v>1562.810726301005</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540648</v>
+        <v>1309.172761972369</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540648</v>
+        <v>978.1098746287981</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540648</v>
+        <v>978.1098746287981</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540648</v>
+        <v>604.6441163677182</v>
       </c>
       <c r="Y5" t="n">
-        <v>1313.579234564837</v>
+        <v>604.6441163677182</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428.3223248269011</v>
+        <v>379.6990261433523</v>
       </c>
       <c r="C6" t="n">
-        <v>428.3223248269011</v>
+        <v>205.2459968622253</v>
       </c>
       <c r="D6" t="n">
-        <v>428.3223248269011</v>
+        <v>56.31158720097406</v>
       </c>
       <c r="E6" t="n">
-        <v>269.0848698214456</v>
+        <v>56.31158720097406</v>
       </c>
       <c r="F6" t="n">
-        <v>269.0848698214456</v>
+        <v>56.31158720097406</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0028829354054</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H6" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478751</v>
+        <v>61.66788464787557</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806059</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189971</v>
+        <v>399.8722171189988</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522349</v>
+        <v>668.6238185223515</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352464</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639506</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703771</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703771</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1205.559652423526</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>977.4445103790821</v>
+        <v>1217.763518862109</v>
       </c>
       <c r="V6" t="n">
-        <v>977.4445103790821</v>
+        <v>1217.763518862109</v>
       </c>
       <c r="W6" t="n">
-        <v>804.3891620525019</v>
+        <v>963.5261621339071</v>
       </c>
       <c r="X6" t="n">
-        <v>596.5376618469691</v>
+        <v>755.6746619283742</v>
       </c>
       <c r="Y6" t="n">
-        <v>596.5376618469691</v>
+        <v>547.9143631634204</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.8635834179917</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="C7" t="n">
-        <v>202.8635834179917</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="D7" t="n">
-        <v>202.8635834179917</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="E7" t="n">
-        <v>202.8635834179917</v>
+        <v>181.4480038146681</v>
       </c>
       <c r="F7" t="n">
-        <v>202.8635834179917</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574668</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584111</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347966</v>
+        <v>206.9680378347979</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195359</v>
+        <v>287.8841338195376</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934707</v>
+        <v>342.3101561934728</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="U7" t="n">
-        <v>202.8635834179917</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="V7" t="n">
-        <v>202.8635834179917</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="W7" t="n">
-        <v>202.8635834179917</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="X7" t="n">
-        <v>202.8635834179917</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.8635834179917</v>
+        <v>369.8190495858017</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>420.5710371502358</v>
+        <v>1300.049650079195</v>
       </c>
       <c r="C8" t="n">
-        <v>420.5710371502358</v>
+        <v>931.087133138783</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348528</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348528</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301913</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232734</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711888</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567167</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223596</v>
+        <v>2039.41814541343</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.021119953482</v>
+        <v>1686.649490143316</v>
       </c>
       <c r="X8" t="n">
-        <v>1197.310209190169</v>
+        <v>1686.649490143316</v>
       </c>
       <c r="Y8" t="n">
-        <v>807.1708772143576</v>
+        <v>1686.649490143316</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>745.6225541696373</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>571.1695248885103</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>422.235115227259</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972667</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474385</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474385</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607649</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1329.449690160192</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1329.449690160192</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1121.598189954659</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>913.8378911897053</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>378.5561592496448</v>
+        <v>338.6408822103593</v>
       </c>
       <c r="C10" t="n">
-        <v>209.6199763217379</v>
+        <v>169.7046992824524</v>
       </c>
       <c r="D10" t="n">
-        <v>209.6199763217379</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981548</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>2565.513299557012</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703131</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424063</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="14">
@@ -5260,55 +5260,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5317,13 +5317,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1941.434309135586</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1686.749820929699</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1397.332650892738</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511906</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>572.9069687101817</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>424.9938751277886</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>278.1039276298782</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>110.9078283447581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>110.9078283447581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2940.5785039035</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2924.318243516745</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2774.20160410441</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2626.288510522017</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.22696873374</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2453.684166529967</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3266.742304572424</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3097.806121644517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2947.689482232181</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>2799.776388649788</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3897.172899444211</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3669.183348546194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3448.390769402664</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6727,16 +6727,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6745,7 +6745,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868831</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456495</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874102</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4129.080803767843</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3874.396315561956</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3584.979145524995</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3356.989594626978</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2946.364478946742</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2777.428296018835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2627.3116566065</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3128.012943776982</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362695</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1669.670361056914</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1380.253191019954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1152.263640121936</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>931.4710609784063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.2784330767799</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>91.59190980143154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>201.6449909028986</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>250.5179707280707</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>64.34558267474715</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>151.1491633157405</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>75.03697526434036</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>194.8566322838565</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.7544012944541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.66500970697055</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.8681131589324</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619998.6049278001</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619998.6049278001</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619998.6049278001</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="12">
@@ -26316,43 +26316,43 @@
         <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900066</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900059</v>
-      </c>
       <c r="M2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.599690006</v>
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253113</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.054023195</v>
+        <v>115410.054023192</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.207574265</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881953</v>
+        <v>62913.63765882002</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197551</v>
+        <v>27875.25362197471</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687977</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687977</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687974</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687973</v>
-      </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26472,10 +26472,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936809</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-105837.4979023054</v>
       </c>
       <c r="C6" t="n">
-        <v>267409.2501932571</v>
+        <v>267409.2501932553</v>
       </c>
       <c r="D6" t="n">
-        <v>446229.6438963184</v>
+        <v>446229.643896321</v>
       </c>
       <c r="E6" t="n">
-        <v>89144.22228495496</v>
+        <v>88796.84303059736</v>
       </c>
       <c r="F6" t="n">
-        <v>690587.4298592196</v>
+        <v>690240.0506048623</v>
       </c>
       <c r="G6" t="n">
-        <v>690587.4298592191</v>
+        <v>690240.0506048622</v>
       </c>
       <c r="H6" t="n">
-        <v>690587.4298592192</v>
+        <v>690240.0506048625</v>
       </c>
       <c r="I6" t="n">
-        <v>690587.4298592191</v>
+        <v>690240.0506048624</v>
       </c>
       <c r="J6" t="n">
-        <v>641522.4851306747</v>
+        <v>641175.1058763182</v>
       </c>
       <c r="K6" t="n">
-        <v>627673.7922003996</v>
+        <v>627326.4129460425</v>
       </c>
       <c r="L6" t="n">
-        <v>662712.1762372436</v>
+        <v>662364.7969828876</v>
       </c>
       <c r="M6" t="n">
-        <v>533441.0493076215</v>
+        <v>533093.6700532646</v>
       </c>
       <c r="N6" t="n">
-        <v>690587.4298592192</v>
+        <v>690240.0506048624</v>
       </c>
       <c r="O6" t="n">
-        <v>690587.4298592191</v>
+        <v>690240.0506048625</v>
       </c>
       <c r="P6" t="n">
-        <v>690587.4298592192</v>
+        <v>690240.0506048623</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950608</v>
+        <v>758.8996292950624</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.97570395947</v>
+        <v>431.975703959472</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821562</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262414</v>
+        <v>94.81103524262176</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931521</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666914</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734846</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.4501167931523</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734846</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931521</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666914</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734846</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>220.0742335666826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27435,13 +27435,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>182.5536002658099</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.03819962686595</v>
+        <v>156.406111451227</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,16 +27511,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.88401062568137</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377105</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.2051017684968</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27581,7 +27581,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716282</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>209.1339535161241</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>128.2458788677911</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760054</v>
+        <v>92.85788772760029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>114.1751714418056</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493752</v>
+        <v>43.32085084937509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074785</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>80.37018831760523</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5621003513593</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304059</v>
+        <v>30.24193919304039</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589167</v>
+        <v>36.91115760589143</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>120.9584719851848</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>200.0009937938244</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>336.3572990227896</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>195.455452286443</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39.51612426889139</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>23.54332530129659</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.296334468341748e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,16 +28614,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29091,10 +29091,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>9.947598300641401e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30039,10 +30039,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.23376993155993e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085669</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429362</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520265</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511771</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968094</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861069</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191484</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860959</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634653</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898976</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868535</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062479</v>
+        <v>56.20152915062491</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721886</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658081</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468661</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374449</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872487</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947717</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378873</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734527</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635552</v>
+        <v>96.75348224635572</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054704</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830794</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656344</v>
+        <v>0.07464586517656359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>510.867923325072</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,40 +32785,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>454.5879800486398</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33262,13 +33262,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>360.3952288121457</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>351.5042614518788</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198377</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407046</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811899</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695367</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644781</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974617</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308264</v>
+        <v>207.4834477308273</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890158</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092677</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923144</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437897</v>
+        <v>271.4662640437906</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635328</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930005</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872804</v>
+        <v>68.38629016872846</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554452</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501458</v>
+        <v>68.575070235015</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230856</v>
+        <v>75.59399159230901</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761542</v>
+        <v>81.73343028761587</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569177</v>
+        <v>54.97578017569217</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235211</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417387</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35588,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>222.5537898377871</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>311.9917356041954</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>416.6233618831937</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5537898377867</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>208.9080170074344</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
